--- a/xlsx/IBM研究院_intext.xlsx
+++ b/xlsx/IBM研究院_intext.xlsx
@@ -29,13 +29,13 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_IBM研究院</t>
+    <t>政策_政策_维基百科_IBM研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哥倫比亞大學</t>
+    <t>哥伦比亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DES</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%8F%AF%C2%B7%E6%9B%BC%E5%BE%B7%E5%8D%9A</t>
   </si>
   <si>
-    <t>本華·曼德博</t>
+    <t>本华·曼德博</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%8E%E5%BD%A2</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%99%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>電晶體</t>
+    <t>电晶体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DRAM</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%81%AF%E5%BC%8F%E8%B3%87%E6%96%99%E5%BA%AB</t>
   </si>
   <si>
-    <t>關聯式資料庫</t>
+    <t>关联式资料库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%AB%E6%8F%8F%E9%9A%A7%E9%81%93%E6%98%BE%E5%BE%AE%E9%95%9C</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾獎</t>
+    <t>诺贝尔奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thomas_J._Watson_Research_Center</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E6%A1%91</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF</t>
   </si>
   <si>
-    <t>聖荷西</t>
+    <t>圣荷西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E6%B1%80</t>
   </si>
   <si>
-    <t>奧斯汀</t>
+    <t>奥斯汀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BB%8E%E4%B8%96</t>
   </si>
   <si>
-    <t>蘇黎世</t>
+    <t>苏黎世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC</t>
   </si>
   <si>
-    <t>東京</t>
+    <t>东京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E4%BD%9C</t>
   </si>
   <si>
-    <t>協作</t>
+    <t>协作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%B8%83%E5%BC%8F%E8%AE%A1%E7%AE%97</t>
